--- a/uploads/table_data.xlsx
+++ b/uploads/table_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,115 +419,133 @@
         <v>Status</v>
       </c>
       <c r="F1" t="str">
-        <v>__v</v>
+        <v>createdAt</v>
+      </c>
+      <c r="G1" t="str">
+        <v>updatedAt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>8999876643</v>
+        <v>9205735009</v>
       </c>
       <c r="B2" t="str">
-        <v>12345678900087000000</v>
+        <v>xxxxxxxxxxxxxxx6142U</v>
       </c>
       <c r="C2" t="str">
-        <v>Himanchal Pradesh</v>
+        <v>Delhi</v>
       </c>
       <c r="D2" t="str">
-        <v>BSNL</v>
+        <v>Airtel</v>
       </c>
       <c r="E2" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>Active</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>8669876646</v>
+        <v>9821217834</v>
       </c>
       <c r="B3" t="str">
-        <v>62345678900000000000</v>
+        <v>xxxxxxxxxxxxxxx6076U</v>
       </c>
       <c r="C3" t="str">
-        <v>Himanchal Pradesh</v>
+        <v>Delhi</v>
       </c>
       <c r="D3" t="str">
-        <v>BSNL</v>
+        <v>Airtel</v>
       </c>
       <c r="E3" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>Active</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>8999876647</v>
+        <v>7042972020</v>
       </c>
       <c r="B4" t="str">
-        <v>18945678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3757U</v>
       </c>
       <c r="C4" t="str">
-        <v>Himanchal Pradesh</v>
+        <v>Delhi</v>
       </c>
       <c r="D4" t="str">
-        <v>Vodafone</v>
+        <v>Airtel</v>
       </c>
       <c r="E4" t="str">
         <v>Active</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>7999876648</v>
+        <v>7042977575</v>
       </c>
       <c r="B5" t="str">
-        <v>12345678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3781U</v>
       </c>
       <c r="C5" t="str">
-        <v>Bihar</v>
+        <v>Delhi</v>
       </c>
       <c r="D5" t="str">
-        <v>Jio</v>
+        <v>Airtel</v>
       </c>
       <c r="E5" t="str">
         <v>Active</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2023-12-08T19:09:42.460Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>8799876649</v>
+        <v>7042975353</v>
       </c>
       <c r="B6" t="str">
-        <v>12665678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3799U</v>
       </c>
       <c r="C6" t="str">
         <v>Delhi</v>
       </c>
       <c r="D6" t="str">
-        <v>Vodafone</v>
+        <v>Airtel</v>
       </c>
       <c r="E6" t="str">
         <v>Active</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>9999876650</v>
+        <v>7042970303</v>
       </c>
       <c r="B7" t="str">
-        <v>32345678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3807U</v>
       </c>
       <c r="C7" t="str">
         <v>Delhi</v>
@@ -538,233 +556,108 @@
       <c r="E7" t="str">
         <v>Active</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>9999876540</v>
+        <v>7042971616</v>
       </c>
       <c r="B8" t="str">
-        <v>12345678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3815U</v>
       </c>
       <c r="C8" t="str">
-        <v>UP EAST</v>
+        <v>Delhi</v>
       </c>
       <c r="D8" t="str">
-        <v>Vodafone</v>
+        <v>Airtel</v>
       </c>
       <c r="E8" t="str">
         <v>Active</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6399806543</v>
+        <v>7042976464</v>
       </c>
       <c r="B9" t="str">
-        <v>12345678900000000000</v>
+        <v>xxxxxxxxxxxxxxx3773U</v>
       </c>
       <c r="C9" t="str">
-        <v>Punjab</v>
+        <v>Delhi</v>
       </c>
       <c r="D9" t="str">
         <v>Airtel</v>
       </c>
       <c r="E9" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>Active</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6799876743</v>
+        <v>7042976868</v>
       </c>
       <c r="B10" t="str">
-        <v>12345678900440000000</v>
+        <v>xxxxxxxxxxxxxxx3823U</v>
       </c>
       <c r="C10" t="str">
-        <v>UP EAST</v>
+        <v>Delhi</v>
       </c>
       <c r="D10" t="str">
-        <v>Jio</v>
+        <v>Airtel</v>
       </c>
       <c r="E10" t="str">
         <v>Active</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>8999876643</v>
+        <v>7042975858</v>
       </c>
       <c r="B11" t="str">
-        <v>12345678900087000000</v>
+        <v>xxxxxxxxxxxxxxx3849U</v>
       </c>
       <c r="C11" t="str">
-        <v>Himanchal Pradesh</v>
+        <v>Delhi</v>
       </c>
       <c r="D11" t="str">
-        <v>BSNL</v>
+        <v>Airtel</v>
       </c>
       <c r="E11" t="str">
         <v>Active</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>8599876644</v>
-      </c>
-      <c r="B12" t="str">
-        <v>12345678999000000000</v>
-      </c>
-      <c r="C12" t="str">
-        <v>UP EAST</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Jio</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>8779876645</v>
-      </c>
-      <c r="B13" t="str">
-        <v>12345678900000500000</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Bihar</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Airtel</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>8669876646</v>
-      </c>
-      <c r="B14" t="str">
-        <v>62345678900000000000</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Himanchal Pradesh</v>
-      </c>
-      <c r="D14" t="str">
-        <v>BSNL</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Inactive</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>8999876647</v>
-      </c>
-      <c r="B15" t="str">
-        <v>18945678900000000000</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Himanchal Pradesh</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Vodafone</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>7999876648</v>
-      </c>
-      <c r="B16" t="str">
-        <v>12345678900000000000</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Bihar</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Jio</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>8799876649</v>
-      </c>
-      <c r="B17" t="str">
-        <v>12665678900000000000</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Delhi</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Vodafone</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>9999876650</v>
-      </c>
-      <c r="B18" t="str">
-        <v>32345678900000000000</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Delhi</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Airtel</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Active</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F11" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2023-12-08T19:09:42.461Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
   </ignoredErrors>
 </worksheet>
 </file>